--- a/datasets/Brasileirao/match_history/teams/cuiaba.xlsx
+++ b/datasets/Brasileirao/match_history/teams/cuiaba.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,12 +518,20 @@
           <t>team</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>time_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023-04-15</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45031</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -578,12 +590,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>194</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.8236579042685769</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023-04-22</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45038</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -642,12 +658,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>187</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.8294437363854039</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2023-04-30</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45046</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -706,12 +726,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>179</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.8361058993970355</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2023-05-07</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45053</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -770,12 +794,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>172</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.8419791731684999</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2023-05-10</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45056</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -834,12 +862,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>169</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.8445089033860343</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023-05-13</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45059</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -898,12 +930,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>166</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8470462341893996</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2023-05-22</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45068</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -962,12 +998,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>157</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.8547040588176851</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-05-27</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>45073</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1026,12 +1066,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>152</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8589882807411234</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2023-06-04</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>45081</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1090,12 +1134,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>144</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.865887748059205</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2023-06-10</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>45087</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1154,12 +1202,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>138</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.8710986917457983</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2023-06-22</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>45099</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1218,12 +1270,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>126</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.8816148467834161</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2023-06-26</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>45103</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1282,12 +1338,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>122</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.8851483685026271</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2023-07-02</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>45109</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1346,12 +1406,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>116</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.8904752232974726</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2023-07-08</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>45115</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1410,12 +1474,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>110</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8958341352965282</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2023-07-16</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>45123</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1474,12 +1542,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>102</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.9030295516688768</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2023-07-22</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>45129</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1538,12 +1610,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>96</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.9084640160687062</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2023-07-29</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>45136</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1602,12 +1678,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>89</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.914845573574452</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2023-08-06</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>45144</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1666,12 +1746,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>81</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.9221936914446081</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>45153</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1730,12 +1814,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>72</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.9305308958112057</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2023-08-19</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>45157</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1794,12 +1882,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>68</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.9342604735772135</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2023-08-27</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>45165</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1858,12 +1950,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>60</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.9417645335842487</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>45172</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1922,12 +2018,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>53</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.9483800124822982</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2023-09-15</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>45184</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1986,12 +2086,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>41</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.9598291299477989</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2023-09-23</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>45192</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2050,12 +2154,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>33</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.967538559589032</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2023-09-30</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>45199</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2114,12 +2222,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>26</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.9743350896087494</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2023-10-14</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>45213</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2178,12 +2290,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>12</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.9880717128619305</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2023-10-18</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>45217</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2242,12 +2358,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>8</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.9920319148370607</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2023-10-21</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>45220</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2306,12 +2426,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.9950124791926823</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2023-10-25</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>45224</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2370,12 +2494,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.999000499833375</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2022-04-10</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>44661</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2434,12 +2562,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>564</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.5689287911791218</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2022-04-16</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>44667</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2498,12 +2630,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>558</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5723526251566332</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2022-04-24</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>44675</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2562,12 +2698,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>550</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.5769498103804866</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2022-04-30</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>44681</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2626,12 +2766,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>544</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.5804219151407424</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2022-05-08</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>44689</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2690,12 +2834,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>536</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.5850839135917069</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2022-05-15</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>44696</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2754,12 +2902,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>529</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.5891938690486437</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2022-05-21</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>44702</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2818,12 +2970,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>523</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.5927396589954125</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2022-05-29</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>44710</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2882,12 +3038,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>515</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.5975005946182375</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2022-06-04</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>44716</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2946,12 +3106,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>509</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.6010963747389753</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2022-06-07</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>44719</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3010,12 +3174,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q40" t="n">
+        <v>506</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.6029023715038421</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2022-06-11</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>44723</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3074,12 +3242,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q41" t="n">
+        <v>502</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.6053188106462243</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2022-06-15</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>44727</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3138,12 +3310,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q42" t="n">
+        <v>498</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.6077449349024902</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2022-06-18</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>44730</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3202,12 +3378,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q43" t="n">
+        <v>495</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6095709072963093</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2022-06-26</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>44738</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3266,12 +3446,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q44" t="n">
+        <v>487</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.6144670329446308</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2022-07-03</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>44745</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3330,12 +3514,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q45" t="n">
+        <v>480</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.6187833918061408</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2022-07-10</t>
-        </is>
+      <c r="A46" s="2" t="n">
+        <v>44752</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3394,12 +3582,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q46" t="n">
+        <v>473</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.6231300711776578</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2022-07-18</t>
-        </is>
+      <c r="A47" s="2" t="n">
+        <v>44760</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3458,12 +3650,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q47" t="n">
+        <v>465</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.6281351051896408</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2022-07-21</t>
-        </is>
+      <c r="A48" s="2" t="n">
+        <v>44763</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3522,12 +3718,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q48" t="n">
+        <v>462</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.6300223399419123</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2022-07-25</t>
-        </is>
+      <c r="A49" s="2" t="n">
+        <v>44767</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3586,12 +3786,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q49" t="n">
+        <v>458</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.6325474762073634</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2022-07-31</t>
-        </is>
+      <c r="A50" s="2" t="n">
+        <v>44773</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3650,12 +3854,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q50" t="n">
+        <v>452</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.6363541697250871</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2022-08-07</t>
-        </is>
+      <c r="A51" s="2" t="n">
+        <v>44780</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3714,12 +3922,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q51" t="n">
+        <v>445</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.6408242760323187</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
+      <c r="A52" s="2" t="n">
+        <v>44786</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3778,12 +3990,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q52" t="n">
+        <v>439</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.6446807796298013</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2022-08-21</t>
-        </is>
+      <c r="A53" s="2" t="n">
+        <v>44794</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3842,12 +4058,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q53" t="n">
+        <v>431</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.6498589107747496</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2022-08-28</t>
-        </is>
+      <c r="A54" s="2" t="n">
+        <v>44801</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3906,12 +4126,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q54" t="n">
+        <v>424</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.6544238819088586</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2022-09-04</t>
-        </is>
+      <c r="A55" s="2" t="n">
+        <v>44808</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3970,12 +4194,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q55" t="n">
+        <v>417</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.6590209199441207</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2022-09-10</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>44814</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4034,12 +4262,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q56" t="n">
+        <v>411</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.6629869316007274</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2022-09-18</t>
-        </is>
+      <c r="A57" s="2" t="n">
+        <v>44822</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4098,12 +4330,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q57" t="n">
+        <v>403</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.6683120993235603</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2022-09-28</t>
-        </is>
+      <c r="A58" s="2" t="n">
+        <v>44832</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4162,12 +4398,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q58" t="n">
+        <v>393</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.6750287475861332</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2022-10-01</t>
-        </is>
+      <c r="A59" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4226,12 +4466,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q59" t="n">
+        <v>390</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.6770568744981647</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2022-10-05</t>
-        </is>
+      <c r="A60" s="2" t="n">
+        <v>44839</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4290,12 +4534,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q60" t="n">
+        <v>386</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.679770525680321</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2022-10-08</t>
-        </is>
+      <c r="A61" s="2" t="n">
+        <v>44842</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4354,12 +4602,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q61" t="n">
+        <v>383</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.6818128992859905</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2022-10-16</t>
-        </is>
+      <c r="A62" s="2" t="n">
+        <v>44850</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4418,12 +4670,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q62" t="n">
+        <v>375</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.6872892787909722</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2022-10-23</t>
-        </is>
+      <c r="A63" s="2" t="n">
+        <v>44857</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4482,12 +4738,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q63" t="n">
+        <v>368</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.6921171816887304</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2022-10-27</t>
-        </is>
+      <c r="A64" s="2" t="n">
+        <v>44861</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4546,12 +4806,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q64" t="n">
+        <v>364</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.6948911947429106</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2022-11-01</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>44866</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4610,12 +4874,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q65" t="n">
+        <v>359</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.6983743513515736</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2022-11-06</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>44871</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4674,12 +4942,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q66" t="n">
+        <v>354</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.701874967355394</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2022-11-10</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>44875</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4738,12 +5010,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q67" t="n">
+        <v>350</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.7046880897187134</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2022-11-13</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>44878</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4802,12 +5078,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q68" t="n">
+        <v>347</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.7068053282577494</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2021-05-29</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>44345</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4866,12 +5146,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q69" t="n">
+        <v>880</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.4147829116815814</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2021-06-06</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>44353</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4930,12 +5214,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q70" t="n">
+        <v>872</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.4181144834939193</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2021-06-17</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>44364</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4994,12 +5282,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q71" t="n">
+        <v>861</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.4227391317459628</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2021-06-23</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>44370</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5058,12 +5350,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q72" t="n">
+        <v>855</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.4252831910822741</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2021-06-27</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>44374</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5122,12 +5418,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q73" t="n">
+        <v>851</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.4269877306530259</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2021-07-01</t>
-        </is>
+      <c r="A74" s="2" t="n">
+        <v>44378</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5186,12 +5486,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q74" t="n">
+        <v>847</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.4286991020365772</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2021-07-04</t>
-        </is>
+      <c r="A75" s="2" t="n">
+        <v>44381</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5250,12 +5554,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q75" t="n">
+        <v>844</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.4299871304192398</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2021-07-07</t>
-        </is>
+      <c r="A76" s="2" t="n">
+        <v>44384</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5314,12 +5622,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q76" t="n">
+        <v>841</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.4312790286889785</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2021-07-11</t>
-        </is>
+      <c r="A77" s="2" t="n">
+        <v>44388</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5378,12 +5690,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q77" t="n">
+        <v>837</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.4330075996408776</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2021-07-18</t>
-        </is>
+      <c r="A78" s="2" t="n">
+        <v>44395</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -5442,12 +5758,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q78" t="n">
+        <v>830</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.4360492863215356</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2021-07-21</t>
-        </is>
+      <c r="A79" s="2" t="n">
+        <v>44398</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5506,12 +5826,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q79" t="n">
+        <v>827</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.437359398365983</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2021-07-26</t>
-        </is>
+      <c r="A80" s="2" t="n">
+        <v>44403</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5570,12 +5894,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q80" t="n">
+        <v>822</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.4395516714733476</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2021-07-31</t>
-        </is>
+      <c r="A81" s="2" t="n">
+        <v>44408</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5634,12 +5962,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q81" t="n">
+        <v>817</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.4417549333953923</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2021-08-07</t>
-        </is>
+      <c r="A82" s="2" t="n">
+        <v>44415</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5698,12 +6030,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q82" t="n">
+        <v>810</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.4448580662229411</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2021-08-15</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>44423</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5762,12 +6098,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q83" t="n">
+        <v>802</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.4484312042481095</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
-        </is>
+      <c r="A84" s="2" t="n">
+        <v>44426</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5826,12 +6166,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q84" t="n">
+        <v>799</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.4497785178207278</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2021-08-22</t>
-        </is>
+      <c r="A85" s="2" t="n">
+        <v>44430</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5890,12 +6234,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q85" t="n">
+        <v>795</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.4515812349225922</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
+      <c r="A86" s="2" t="n">
+        <v>44438</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5954,12 +6302,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q86" t="n">
+        <v>787</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.4552083740136159</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2021-09-04</t>
-        </is>
+      <c r="A87" s="2" t="n">
+        <v>44443</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -6018,12 +6370,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q87" t="n">
+        <v>782</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.4574901154837331</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2021-09-11</t>
-        </is>
+      <c r="A88" s="2" t="n">
+        <v>44450</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -6082,12 +6438,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q88" t="n">
+        <v>775</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.4607037809989658</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2021-09-20</t>
-        </is>
+      <c r="A89" s="2" t="n">
+        <v>44459</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -6146,12 +6506,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q89" t="n">
+        <v>766</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.4648688296327683</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2021-09-26</t>
-        </is>
+      <c r="A90" s="2" t="n">
+        <v>44465</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -6210,12 +6574,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q90" t="n">
+        <v>760</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.4676664270099092</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2021-10-02</t>
-        </is>
+      <c r="A91" s="2" t="n">
+        <v>44471</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -6274,12 +6642,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q91" t="n">
+        <v>754</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.4704808604289306</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2021-10-06</t>
-        </is>
+      <c r="A92" s="2" t="n">
+        <v>44475</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -6338,12 +6710,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q92" t="n">
+        <v>750</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.4723665527410147</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2021-10-11</t>
-        </is>
+      <c r="A93" s="2" t="n">
+        <v>44480</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -6402,12 +6778,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q93" t="n">
+        <v>745</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.4747342999399124</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2021-10-14</t>
-        </is>
+      <c r="A94" s="2" t="n">
+        <v>44483</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -6466,12 +6846,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q94" t="n">
+        <v>742</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.4761606412819894</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2021-10-17</t>
-        </is>
+      <c r="A95" s="2" t="n">
+        <v>44486</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -6530,12 +6914,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q95" t="n">
+        <v>739</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.4775912680730521</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2021-10-24</t>
-        </is>
+      <c r="A96" s="2" t="n">
+        <v>44493</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6594,12 +6982,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q96" t="n">
+        <v>732</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.480946135285778</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2021-11-01</t>
-        </is>
+      <c r="A97" s="2" t="n">
+        <v>44501</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6658,12 +7050,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q97" t="n">
+        <v>724</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.4848091357673432</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2021-11-04</t>
-        </is>
+      <c r="A98" s="2" t="n">
+        <v>44504</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -6722,12 +7118,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q98" t="n">
+        <v>721</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.4862657469990346</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2021-11-07</t>
-        </is>
+      <c r="A99" s="2" t="n">
+        <v>44507</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -6786,12 +7186,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q99" t="n">
+        <v>718</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.4877267346257312</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2021-11-13</t>
-        </is>
+      <c r="A100" s="2" t="n">
+        <v>44513</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -6850,12 +7254,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q100" t="n">
+        <v>712</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.4906618916992401</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2021-11-17</t>
-        </is>
+      <c r="A101" s="2" t="n">
+        <v>44517</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -6914,12 +7322,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q101" t="n">
+        <v>708</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.4926284698001355</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2021-11-21</t>
-        </is>
+      <c r="A102" s="2" t="n">
+        <v>44521</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -6978,12 +7390,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q102" t="n">
+        <v>704</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.494602929967057</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2021-11-30</t>
-        </is>
+      <c r="A103" s="2" t="n">
+        <v>44530</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -7042,12 +7458,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q103" t="n">
+        <v>695</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.4990744479851359</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2021-12-03</t>
-        </is>
+      <c r="A104" s="2" t="n">
+        <v>44533</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -7106,12 +7526,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q104" t="n">
+        <v>692</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.5005739194116277</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2021-12-06</t>
-        </is>
+      <c r="A105" s="2" t="n">
+        <v>44536</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -7170,12 +7594,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q105" t="n">
+        <v>689</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.502077896006773</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2021-12-09</t>
-        </is>
+      <c r="A106" s="2" t="n">
+        <v>44539</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -7233,6 +7661,12 @@
         <is>
           <t>cuiaba</t>
         </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>686</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.5035863913063714</v>
       </c>
     </row>
   </sheetData>
